--- a/biology/Zoologie/Bufotes_boulengeri/Bufotes_boulengeri.xlsx
+++ b/biology/Zoologie/Bufotes_boulengeri/Bufotes_boulengeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bufotes boulengeri est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bufotes boulengeri est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Nord[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Nord, :
 au Maroc ;
 à Ceuta et Melilla en Espagne ;
 au Sahara occidental ;
@@ -551,9 +565,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était considérée comme synonyme de Bufotes viridis, le Crapaud vert, jusqu'en 2006[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était considérée comme synonyme de Bufotes viridis, le Crapaud vert, jusqu'en 2006
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de George Albert Boulenger.
 </t>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lataste, 1879 : Sur les secours réciproques que peuvent se fournir la zoologie descriptive et la zoologie géographique. Revue internationale  des sciences, vol. 3, p. 434-438 (texte intégral).</t>
         </is>
